--- a/testdata/Scenario1_2_3_TestData.xlsx
+++ b/testdata/Scenario1_2_3_TestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2408493\Downloads\Hackathon_Project\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2408439\CTS_Java_Training\Practicals\IntelliJ_Selenium_Projects\Hackathon_Project\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0AE8B3-9A68-4423-873D-1B6DEF37D918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A33C51-0EA8-44E6-99DE-58F8F622503B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DE57E9C9-A6C1-4A7D-85B9-1309751074B4}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="80">
   <si>
     <t>TC_ID</t>
   </si>
@@ -255,13 +255,33 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>validateAccessingTravelInsurancePage</t>
+  </si>
+  <si>
+    <t>TC_001_11</t>
+  </si>
+  <si>
+    <t>validateIfInsuranceProductIsEnabled</t>
+  </si>
+  <si>
+    <t>validateIfHealthInsuranceIsEnabled</t>
+  </si>
+  <si>
+    <t>TC_003_02</t>
+  </si>
+  <si>
+    <t>TC_003_03</t>
+  </si>
+  <si>
+    <t>TC_003_04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -312,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -320,6 +340,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,24 +678,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDE3050-D1DC-49F4-900E-5DA4D3857D18}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B21" sqref="B21:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.0"/>
-    <col min="2" max="2" customWidth="true" width="10.36328125"/>
-    <col min="3" max="3" customWidth="true" width="42.6328125"/>
-    <col min="4" max="4" customWidth="true" width="13.1796875"/>
-    <col min="5" max="5" customWidth="true" width="48.1796875"/>
-    <col min="6" max="6" customWidth="true" width="18.90625"/>
-    <col min="7" max="7" customWidth="true" width="12.7265625"/>
-    <col min="8" max="8" customWidth="true" width="19.6328125"/>
-    <col min="9" max="9" customWidth="true" width="10.26953125"/>
-    <col min="10" max="11" customWidth="true" width="11.08984375"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" customWidth="1"/>
+    <col min="3" max="3" width="42.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="48.1796875" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" customWidth="1"/>
+    <col min="8" max="8" width="19.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" customWidth="1"/>
+    <col min="10" max="11" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -713,120 +737,110 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="0">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="L3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s" s="0">
+      <c r="B4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L3" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="L4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s" s="0">
+      <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L4" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s" s="0">
+      <c r="B6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s" s="0">
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -841,27 +855,24 @@
       <c r="I6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J6" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s" s="0">
+      <c r="L6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s" s="0">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -876,27 +887,27 @@
       <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="J7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" t="s" s="0">
+      <c r="L7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s" s="0">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -911,27 +922,27 @@
       <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J8" t="s" s="0">
+      <c r="J8" t="s">
         <v>18</v>
       </c>
-      <c r="L8" t="s" s="0">
+      <c r="L8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s" s="0">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -940,283 +951,366 @@
       <c r="G9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
         <v>22</v>
       </c>
-      <c r="L9" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="L10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s" s="0">
+      <c r="B11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s" s="0">
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="L10" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="L11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s" s="0">
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="0">
+      <c r="H12" t="s">
         <v>26</v>
       </c>
-      <c r="L11" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
+      <c r="L12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B13" t="s">
         <v>61</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="L12" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B14" t="s">
         <v>62</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="D13" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="L13" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="L14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C15" t="s">
         <v>48</v>
       </c>
-      <c r="D14" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s" s="0">
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="L14" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+      <c r="F15" s="2"/>
+      <c r="L15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B16" t="s">
         <v>64</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="D15" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s" s="0">
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G16" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="L16" t="s" s="0">
+      <c r="L16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s" s="0">
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
         <v>49</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G17" t="s" s="0">
+      <c r="G17" t="s">
         <v>53</v>
       </c>
-      <c r="H17" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="L17" t="s" s="0">
+      <c r="L17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s" s="0">
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
         <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G18" t="s" s="0">
+      <c r="G18" t="s">
         <v>53</v>
       </c>
-      <c r="H18" t="s" s="0">
+      <c r="H18" t="s">
         <v>55</v>
       </c>
-      <c r="I18" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="L18" t="s" s="0">
+      <c r="L18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s" s="0">
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
         <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G19" t="s" s="0">
+      <c r="G19" t="s">
         <v>53</v>
       </c>
-      <c r="H19" t="s" s="0">
+      <c r="H19" t="s">
         <v>55</v>
       </c>
-      <c r="I19" t="s" s="0">
+      <c r="I19" t="s">
         <v>57</v>
       </c>
-      <c r="J19" t="s" s="0">
+      <c r="L19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" t="s">
         <v>59</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L19" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
+      <c r="L20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B21" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L20" t="s" s="0">
+      <c r="L24" t="s">
         <v>72</v>
       </c>
     </row>

--- a/testdata/Scenario1_2_3_TestData.xlsx
+++ b/testdata/Scenario1_2_3_TestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2408439\CTS_Java_Training\Practicals\IntelliJ_Selenium_Projects\Hackathon_Project\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A33C51-0EA8-44E6-99DE-58F8F622503B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F67009F-62AD-4E86-8279-C65606E0A854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DE57E9C9-A6C1-4A7D-85B9-1309751074B4}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="81">
   <si>
     <t>TC_ID</t>
   </si>
@@ -125,12 +125,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>SCENARIO_ID</t>
   </si>
   <si>
@@ -276,12 +270,22 @@
   </si>
   <si>
     <t>TC_003_04</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -332,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -340,10 +344,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,26 +681,26 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B24"/>
+      <selection activeCell="F6" sqref="F6:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" customWidth="1"/>
-    <col min="3" max="3" width="42.6328125" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="48.1796875" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" customWidth="1"/>
-    <col min="8" max="8" width="19.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" customWidth="1"/>
-    <col min="10" max="11" width="11.08984375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.0"/>
+    <col min="2" max="2" customWidth="true" width="10.36328125"/>
+    <col min="3" max="3" customWidth="true" width="42.6328125"/>
+    <col min="4" max="4" customWidth="true" width="13.1796875"/>
+    <col min="5" max="5" customWidth="true" width="48.1796875"/>
+    <col min="6" max="6" customWidth="true" width="18.90625"/>
+    <col min="7" max="7" customWidth="true" width="12.7265625"/>
+    <col min="8" max="8" customWidth="true" width="19.6328125"/>
+    <col min="9" max="9" customWidth="true" width="10.26953125"/>
+    <col min="10" max="11" customWidth="true" width="11.08984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -730,23 +730,23 @@
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="A2" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>4</v>
       </c>
       <c r="E2" s="1"/>
@@ -759,59 +759,59 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -823,31 +823,31 @@
       <c r="G5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L5" t="s">
-        <v>72</v>
+      <c r="L5" t="s" s="0">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="A6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>14</v>
@@ -855,31 +855,31 @@
       <c r="I6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L6" t="s">
-        <v>72</v>
+      <c r="L6" t="s" s="0">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="A7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>14</v>
@@ -887,34 +887,34 @@
       <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="L7" t="s">
-        <v>72</v>
+      <c r="L7" t="s" s="0">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="A8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>14</v>
@@ -922,34 +922,34 @@
       <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="L8" t="s">
-        <v>72</v>
+      <c r="L8" t="s" s="0">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="A9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>14</v>
@@ -957,76 +957,76 @@
       <c r="I9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="L9" t="s">
-        <v>72</v>
+      <c r="L9" t="s" s="0">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>43</v>
+      <c r="A10" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="B11" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1035,283 +1035,283 @@
       <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="L12" t="s">
-        <v>72</v>
+      <c r="L12" t="s" s="0">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="L13" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="L14" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D15" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="L15" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="L14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="F16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C17" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="L15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="G17" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="L17" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C18" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G18" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="L16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="H18" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="L18" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C19" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G19" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H19" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="L17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="I19" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="L19" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G20" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H20" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I20" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="L18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="J20" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" t="s">
-        <v>59</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s" s="0">
         <v>4</v>
       </c>
       <c r="F21" s="2"/>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="A22" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s" s="0">
         <v>4</v>
       </c>
       <c r="F22" s="2"/>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="A23" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s" s="0">
         <v>4</v>
       </c>
       <c r="F23" s="2"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>79</v>
+      <c r="A24" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>77</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L24" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="L24" t="s" s="0">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Scenario1_2_3_TestData.xlsx
+++ b/testdata/Scenario1_2_3_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2408439\CTS_Java_Training\Practicals\IntelliJ_Selenium_Projects\Hackathon_Project\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F67009F-62AD-4E86-8279-C65606E0A854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580E5308-3765-41D9-896E-34B2C5BB0322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DE57E9C9-A6C1-4A7D-85B9-1309751074B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="82">
   <si>
     <t>TC_ID</t>
   </si>
@@ -266,9 +266,6 @@
     <t>TC_003_02</t>
   </si>
   <si>
-    <t>TC_003_03</t>
-  </si>
-  <si>
     <t>TC_003_04</t>
   </si>
   <si>
@@ -279,6 +276,12 @@
   </si>
   <si>
     <t>13</t>
+  </si>
+  <si>
+    <t>validateRetrievingHealthInsuranceData</t>
+  </si>
+  <si>
+    <t>TC_003_05</t>
   </si>
 </sst>
 </file>
@@ -286,7 +289,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +318,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -336,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -344,6 +353,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,7 +693,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G10"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -792,10 +804,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="L4" t="s" s="0">
         <v>70</v>
@@ -844,10 +856,10 @@
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>14</v>
@@ -876,10 +888,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>14</v>
@@ -911,10 +923,10 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>14</v>
@@ -946,10 +958,10 @@
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>14</v>
@@ -981,10 +993,10 @@
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="H10" t="s" s="0">
         <v>22</v>
@@ -1243,7 +1255,7 @@
         <v>58</v>
       </c>
       <c r="L20" t="s" s="0">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -1285,33 +1297,31 @@
       <c r="B23" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D23" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="D23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" t="s" s="0">
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L24" t="s" s="0">
-        <v>70</v>
+        <v>81</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Scenario1_2_3_TestData.xlsx
+++ b/testdata/Scenario1_2_3_TestData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="82">
   <si>
     <t>TC_ID</t>
   </si>

--- a/testdata/Scenario1_2_3_TestData.xlsx
+++ b/testdata/Scenario1_2_3_TestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2408439\CTS_Java_Training\Practicals\IntelliJ_Selenium_Projects\Hackathon_Project\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580E5308-3765-41D9-896E-34B2C5BB0322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66424C1-1D16-4238-8481-B2FED71CC54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DE57E9C9-A6C1-4A7D-85B9-1309751074B4}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="81">
   <si>
     <t>TC_ID</t>
   </si>
@@ -267,9 +267,6 @@
   </si>
   <si>
     <t>TC_003_04</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
   <si>
     <t>15</t>
@@ -288,7 +285,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -345,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -356,6 +352,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,22 +689,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDE3050-D1DC-49F4-900E-5DA4D3857D18}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.0"/>
-    <col min="2" max="2" customWidth="true" width="10.36328125"/>
-    <col min="3" max="3" customWidth="true" width="42.6328125"/>
-    <col min="4" max="4" customWidth="true" width="13.1796875"/>
-    <col min="5" max="5" customWidth="true" width="48.1796875"/>
-    <col min="6" max="6" customWidth="true" width="18.90625"/>
-    <col min="7" max="7" customWidth="true" width="12.7265625"/>
-    <col min="8" max="8" customWidth="true" width="19.6328125"/>
-    <col min="9" max="9" customWidth="true" width="10.26953125"/>
-    <col min="10" max="11" customWidth="true" width="11.08984375"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" customWidth="1"/>
+    <col min="3" max="3" width="42.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="48.1796875" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" customWidth="1"/>
+    <col min="8" max="8" width="19.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" customWidth="1"/>
+    <col min="10" max="11" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -749,16 +746,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1"/>
@@ -768,62 +765,64 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="L2" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s" s="0">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" t="s" s="0">
+      <c r="L3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" t="s" s="0">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -835,31 +834,31 @@
       <c r="G5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L5" t="s" s="0">
+      <c r="L5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s" s="0">
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>14</v>
@@ -867,31 +866,31 @@
       <c r="I6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L6" t="s" s="0">
+      <c r="L6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s" s="0">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>14</v>
@@ -899,34 +898,34 @@
       <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="J7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" t="s" s="0">
+      <c r="L7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s" s="0">
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>14</v>
@@ -934,34 +933,34 @@
       <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J8" t="s" s="0">
+      <c r="J8" t="s">
         <v>18</v>
       </c>
-      <c r="L8" t="s" s="0">
+      <c r="L8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s" s="0">
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>14</v>
@@ -969,76 +968,76 @@
       <c r="I9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J9" t="s">
         <v>18</v>
       </c>
-      <c r="L9" t="s" s="0">
+      <c r="L9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s" s="0">
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" t="s" s="0">
+      <c r="H10" t="s">
         <v>22</v>
       </c>
-      <c r="L10" t="s" s="0">
+      <c r="L10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s" s="0">
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="L11" t="s" s="0">
+      <c r="L11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>72</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s" s="0">
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1047,254 +1046,260 @@
       <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="0">
+      <c r="H12" t="s">
         <v>26</v>
       </c>
-      <c r="L12" t="s" s="0">
+      <c r="L12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="L13" t="s" s="0">
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>60</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="L14" t="s" s="0">
+      <c r="L14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>61</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s" s="0">
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="L15" t="s" s="0">
+      <c r="L15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>62</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>48</v>
       </c>
-      <c r="D16" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s" s="0">
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
         <v>47</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L16" t="s" s="0">
+      <c r="L16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="D17" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s" s="0">
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
         <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G17" t="s" s="0">
+      <c r="G17" t="s">
         <v>51</v>
       </c>
-      <c r="L17" t="s" s="0">
+      <c r="L17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>64</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="D18" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s" s="0">
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
         <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G18" t="s" s="0">
+      <c r="G18" t="s">
         <v>51</v>
       </c>
-      <c r="H18" t="s" s="0">
+      <c r="H18" t="s">
         <v>53</v>
       </c>
-      <c r="L18" t="s" s="0">
+      <c r="L18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>54</v>
       </c>
-      <c r="D19" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s" s="0">
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
         <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G19" t="s" s="0">
+      <c r="G19" t="s">
         <v>51</v>
       </c>
-      <c r="H19" t="s" s="0">
+      <c r="H19" t="s">
         <v>53</v>
       </c>
-      <c r="I19" t="s" s="0">
+      <c r="I19" t="s">
         <v>55</v>
       </c>
-      <c r="L19" t="s" s="0">
+      <c r="L19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B20" t="s">
         <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D20" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s" s="0">
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
         <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G20" t="s" s="0">
+      <c r="G20" t="s">
         <v>51</v>
       </c>
-      <c r="H20" t="s" s="0">
+      <c r="H20" t="s">
         <v>53</v>
       </c>
-      <c r="I20" t="s" s="0">
+      <c r="I20" t="s">
         <v>55</v>
       </c>
-      <c r="J20" t="s" s="0">
+      <c r="J20" t="s">
         <v>57</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L20" t="s" s="0">
-        <v>77</v>
+      <c r="L20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B21" t="s">
         <v>67</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="2"/>
       <c r="K21" s="2"/>
+      <c r="L21" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B22" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="2"/>
       <c r="K22" s="2"/>
+      <c r="L22" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>76</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1306,22 +1311,25 @@
       <c r="E23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L23" t="s" s="0">
+      <c r="L23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="s" s="0">
-        <v>81</v>
+      <c r="B24" t="s">
+        <v>80</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" t="s" s="0">
-        <v>4</v>
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Scenario1_2_3_TestData.xlsx
+++ b/testdata/Scenario1_2_3_TestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2408439\CTS_Java_Training\Practicals\IntelliJ_Selenium_Projects\Hackathon_Project\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2408493\Downloads\Hackathon_Project\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A33C51-0EA8-44E6-99DE-58F8F622503B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB13A59A-5B5A-4BA4-A452-0099AF8B9164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DE57E9C9-A6C1-4A7D-85B9-1309751074B4}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="84">
   <si>
     <t>TC_ID</t>
   </si>
@@ -276,12 +276,25 @@
   </si>
   <si>
     <t>TC_003_04</t>
+  </si>
+  <si>
+    <t>validateRetrievingHealthInsuranceData</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -332,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -340,10 +353,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,21 +690,21 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B24"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" customWidth="1"/>
-    <col min="3" max="3" width="42.6328125" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="48.1796875" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" customWidth="1"/>
-    <col min="8" max="8" width="19.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" customWidth="1"/>
-    <col min="10" max="11" width="11.08984375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.0"/>
+    <col min="2" max="2" customWidth="true" width="10.36328125"/>
+    <col min="3" max="3" customWidth="true" width="42.6328125"/>
+    <col min="4" max="4" customWidth="true" width="13.1796875"/>
+    <col min="5" max="5" customWidth="true" width="48.1796875"/>
+    <col min="6" max="6" customWidth="true" width="18.90625"/>
+    <col min="7" max="7" customWidth="true" width="12.7265625"/>
+    <col min="8" max="8" customWidth="true" width="19.6328125"/>
+    <col min="9" max="9" customWidth="true" width="10.26953125"/>
+    <col min="10" max="11" customWidth="true" width="11.08984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -737,16 +746,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s" s="0">
         <v>4</v>
       </c>
       <c r="E2" s="1"/>
@@ -756,39 +765,41 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="L2" t="s" s="0">
+        <v>72</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -797,21 +808,21 @@
       <c r="F4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -823,31 +834,31 @@
       <c r="G5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>14</v>
@@ -855,31 +866,31 @@
       <c r="I6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>14</v>
@@ -887,34 +898,34 @@
       <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>14</v>
@@ -922,34 +933,34 @@
       <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>14</v>
@@ -957,76 +968,76 @@
       <c r="I9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s" s="0">
         <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s" s="0">
         <v>74</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1035,282 +1046,289 @@
       <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="D13" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="L13" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>4</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="L14" t="s">
+      <c r="L14" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s" s="0">
         <v>49</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="L15" t="s">
+      <c r="L15" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s" s="0">
         <v>49</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s" s="0">
         <v>49</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s" s="0">
         <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s" s="0">
         <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>68</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s" s="0">
         <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" t="s" s="0">
         <v>59</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>4</v>
       </c>
       <c r="F21" s="2"/>
       <c r="K21" s="2"/>
+      <c r="L21" t="s" s="0">
+        <v>72</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>4</v>
       </c>
       <c r="F22" s="2"/>
       <c r="K22" s="2"/>
+      <c r="L22" t="s" s="0">
+        <v>72</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="D23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" t="s" s="0">
+        <v>72</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="C24" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="L24" t="s" s="0">
         <v>72</v>
       </c>
     </row>

--- a/testdata/Scenario1_2_3_TestData.xlsx
+++ b/testdata/Scenario1_2_3_TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2408439\CTS_Java_Training\Practicals\IntelliJ_Selenium_Projects\Hackathon_Project\testdata\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="82">
   <si>
     <t>TC_ID</t>
   </si>
@@ -279,12 +279,16 @@
   </si>
   <si>
     <t>TC_003_05</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -695,16 +699,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" customWidth="1"/>
-    <col min="3" max="3" width="42.6328125" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="48.1796875" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" customWidth="1"/>
-    <col min="8" max="8" width="19.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" customWidth="1"/>
-    <col min="10" max="11" width="11.08984375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.0"/>
+    <col min="2" max="2" customWidth="true" width="10.36328125"/>
+    <col min="3" max="3" customWidth="true" width="42.6328125"/>
+    <col min="4" max="4" customWidth="true" width="13.1796875"/>
+    <col min="5" max="5" customWidth="true" width="48.1796875"/>
+    <col min="6" max="6" customWidth="true" width="18.90625"/>
+    <col min="7" max="7" customWidth="true" width="12.7265625"/>
+    <col min="8" max="8" customWidth="true" width="19.6328125"/>
+    <col min="9" max="9" customWidth="true" width="10.26953125"/>
+    <col min="10" max="11" customWidth="true" width="11.08984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -746,16 +750,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>4</v>
       </c>
       <c r="E2" s="1"/>
@@ -770,36 +774,36 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -808,21 +812,21 @@
       <c r="F4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -834,24 +838,24 @@
       <c r="G5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -866,24 +870,24 @@
       <c r="I6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -898,27 +902,27 @@
       <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -933,27 +937,27 @@
       <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -968,27 +972,27 @@
       <c r="I9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -997,47 +1001,47 @@
       <c r="G10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>72</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1046,260 +1050,260 @@
       <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="D13" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="L13" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>4</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="L14" t="s">
+      <c r="L14" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s" s="0">
         <v>47</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="L15" t="s">
+      <c r="L15" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s" s="0">
         <v>47</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s" s="0">
         <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s" s="0">
         <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s" s="0">
         <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s" s="0">
         <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" t="s" s="0">
         <v>57</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>67</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>4</v>
       </c>
       <c r="F21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" t="s">
+      <c r="L21" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>75</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>4</v>
       </c>
       <c r="F22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" t="s">
+      <c r="L22" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>76</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1311,24 +1315,24 @@
       <c r="E23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>80</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="D24" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="L24" t="s" s="0">
         <v>70</v>
       </c>
     </row>

--- a/testdata/Scenario1_2_3_TestData.xlsx
+++ b/testdata/Scenario1_2_3_TestData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="82">
   <si>
     <t>TC_ID</t>
   </si>

--- a/testdata/Scenario1_2_3_TestData.xlsx
+++ b/testdata/Scenario1_2_3_TestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2408439\CTS_Java_Training\Practicals\IntelliJ_Selenium_Projects\Hackathon_Project\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66424C1-1D16-4238-8481-B2FED71CC54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BB1DD3-55DA-4886-AF5A-E2CEFC71638D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DE57E9C9-A6C1-4A7D-85B9-1309751074B4}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="82">
   <si>
     <t>TC_ID</t>
   </si>
@@ -269,26 +269,25 @@
     <t>TC_003_04</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>validateRetrievingHealthInsuranceData</t>
   </si>
   <si>
     <t>TC_003_05</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Test Data8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -345,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -356,7 +355,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,27 +689,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDE3050-D1DC-49F4-900E-5DA4D3857D18}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.0"/>
-    <col min="2" max="2" customWidth="true" width="10.36328125"/>
-    <col min="3" max="3" customWidth="true" width="42.6328125"/>
-    <col min="4" max="4" customWidth="true" width="13.1796875"/>
-    <col min="5" max="5" customWidth="true" width="48.1796875"/>
-    <col min="6" max="6" customWidth="true" width="18.90625"/>
-    <col min="7" max="7" customWidth="true" width="12.7265625"/>
-    <col min="8" max="8" customWidth="true" width="19.6328125"/>
-    <col min="9" max="9" customWidth="true" width="10.26953125"/>
-    <col min="10" max="11" customWidth="true" width="11.08984375"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" customWidth="1"/>
+    <col min="3" max="3" width="42.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="48.1796875" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" customWidth="1"/>
+    <col min="8" max="8" width="19.6328125" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="10" max="11" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -746,20 +745,23 @@
         <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1"/>
@@ -769,100 +771,101 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="L2" s="1"/>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s" s="0">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>77</v>
+      <c r="D4" t="s">
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L5" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="M5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s" s="0">
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>14</v>
@@ -870,31 +873,31 @@
       <c r="I6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L6" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="M6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s" s="0">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>14</v>
@@ -902,34 +905,34 @@
       <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="K7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="M7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s" s="0">
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>14</v>
@@ -937,34 +940,34 @@
       <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J8" t="s" s="0">
+      <c r="K8" t="s">
         <v>18</v>
       </c>
-      <c r="L8" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="M8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s" s="0">
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>14</v>
@@ -972,338 +975,341 @@
       <c r="I9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="K9" t="s">
         <v>18</v>
       </c>
-      <c r="L9" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="M9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s" s="0">
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="L10" t="s">
         <v>22</v>
       </c>
-      <c r="L10" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="M10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s" s="0">
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="L11" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
+      <c r="M11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>72</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s" s="0">
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="0">
+      <c r="L12" t="s">
         <v>26</v>
       </c>
-      <c r="L12" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
+      <c r="M12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="L13" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>60</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="L14" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+      <c r="M14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>61</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s" s="0">
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="L15" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
+      <c r="M15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>62</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>48</v>
       </c>
-      <c r="D16" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s" s="0">
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
         <v>47</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L16" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
+      <c r="M16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="D17" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s" s="0">
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
         <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G17" t="s" s="0">
+      <c r="G17" t="s">
         <v>51</v>
       </c>
-      <c r="L17" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
+      <c r="M17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>64</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="D18" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s" s="0">
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
         <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G18" t="s" s="0">
+      <c r="G18" t="s">
         <v>51</v>
       </c>
-      <c r="H18" t="s" s="0">
+      <c r="H18" t="s">
         <v>53</v>
       </c>
-      <c r="L18" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
+      <c r="M18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>54</v>
       </c>
-      <c r="D19" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s" s="0">
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
         <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G19" t="s" s="0">
+      <c r="G19" t="s">
         <v>51</v>
       </c>
-      <c r="H19" t="s" s="0">
+      <c r="H19" t="s">
         <v>53</v>
       </c>
-      <c r="I19" t="s" s="0">
+      <c r="I19" t="s">
         <v>55</v>
       </c>
-      <c r="L19" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
+      <c r="M19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B20" t="s">
         <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D20" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s" s="0">
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
         <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G20" t="s" s="0">
+      <c r="G20" t="s">
         <v>51</v>
       </c>
-      <c r="H20" t="s" s="0">
+      <c r="H20" t="s">
         <v>53</v>
       </c>
-      <c r="I20" t="s" s="0">
+      <c r="I20" t="s">
         <v>55</v>
       </c>
-      <c r="J20" t="s" s="0">
+      <c r="J20" t="s">
         <v>57</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L20" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" t="s" s="0">
+      <c r="L20" s="2"/>
+      <c r="M20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B21" t="s">
         <v>67</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" t="s" s="0">
+      <c r="L21" s="2"/>
+      <c r="M21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B22" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" t="s" s="0">
+      <c r="L22" s="2"/>
+      <c r="M22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>76</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1315,24 +1321,24 @@
       <c r="E23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L23" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" t="s" s="0">
+      <c r="M23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="s" s="0">
-        <v>80</v>
+      <c r="B24" t="s">
+        <v>78</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="L24" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" t="s">
         <v>70</v>
       </c>
     </row>

--- a/testdata/Scenario1_2_3_TestData.xlsx
+++ b/testdata/Scenario1_2_3_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2408439\CTS_Java_Training\Practicals\IntelliJ_Selenium_Projects\Hackathon_Project\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BB1DD3-55DA-4886-AF5A-E2CEFC71638D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C75010A-7A96-4285-8797-01C497AC8510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DE57E9C9-A6C1-4A7D-85B9-1309751074B4}"/>
   </bookViews>
@@ -275,13 +275,13 @@
     <t>TC_003_05</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>Test Data8</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -692,7 +692,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -745,7 +745,7 @@
         <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>28</v>
@@ -810,10 +810,10 @@
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M4" t="s">
         <v>70</v>
@@ -862,10 +862,10 @@
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>14</v>
@@ -894,10 +894,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>14</v>
@@ -929,10 +929,10 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>14</v>
@@ -964,10 +964,10 @@
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>14</v>
@@ -999,10 +999,10 @@
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L10" t="s">
         <v>22</v>

--- a/testdata/Scenario1_2_3_TestData.xlsx
+++ b/testdata/Scenario1_2_3_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2408439\CTS_Java_Training\Practicals\IntelliJ_Selenium_Projects\Hackathon_Project\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C75010A-7A96-4285-8797-01C497AC8510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0438A9D7-BFFA-44FE-81E2-E695F6808295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DE57E9C9-A6C1-4A7D-85B9-1309751074B4}"/>
   </bookViews>
@@ -692,7 +692,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/testdata/Scenario1_2_3_TestData.xlsx
+++ b/testdata/Scenario1_2_3_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2408439\CTS_Java_Training\Practicals\IntelliJ_Selenium_Projects\Hackathon_Project\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0438A9D7-BFFA-44FE-81E2-E695F6808295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0CF7AE-A394-47F6-B6C3-31BB3E3930E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DE57E9C9-A6C1-4A7D-85B9-1309751074B4}"/>
   </bookViews>
@@ -701,13 +701,13 @@
     <col min="2" max="2" width="10.36328125" customWidth="1"/>
     <col min="3" max="3" width="42.6328125" customWidth="1"/>
     <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="48.1796875" customWidth="1"/>
+    <col min="5" max="5" width="26.90625" customWidth="1"/>
     <col min="6" max="6" width="18.90625" customWidth="1"/>
     <col min="7" max="7" width="12.7265625" customWidth="1"/>
     <col min="8" max="8" width="19.6328125" customWidth="1"/>
     <col min="9" max="9" width="18.08984375" customWidth="1"/>
     <col min="10" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">

--- a/testdata/Scenario1_2_3_TestData.xlsx
+++ b/testdata/Scenario1_2_3_TestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2408439\CTS_Java_Training\Practicals\IntelliJ_Selenium_Projects\Hackathon_Project\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0CF7AE-A394-47F6-B6C3-31BB3E3930E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4BD19C-27BB-4318-A6CC-180F0AFE7170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DE57E9C9-A6C1-4A7D-85B9-1309751074B4}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="84">
   <si>
     <t>TC_ID</t>
   </si>
@@ -278,16 +278,23 @@
     <t>Test Data8</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -692,22 +699,22 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" customWidth="1"/>
-    <col min="3" max="3" width="42.6328125" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="26.90625" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" customWidth="1"/>
-    <col min="8" max="8" width="19.6328125" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" customWidth="1"/>
-    <col min="10" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.0"/>
+    <col min="2" max="2" customWidth="true" width="10.36328125"/>
+    <col min="3" max="3" customWidth="true" width="42.6328125"/>
+    <col min="4" max="4" customWidth="true" width="13.1796875"/>
+    <col min="5" max="5" customWidth="true" width="26.90625"/>
+    <col min="6" max="6" customWidth="true" width="18.90625"/>
+    <col min="7" max="7" customWidth="true" width="12.7265625"/>
+    <col min="8" max="8" customWidth="true" width="19.6328125"/>
+    <col min="9" max="9" customWidth="true" width="18.08984375"/>
+    <col min="10" max="11" customWidth="true" width="11.08984375"/>
+    <col min="12" max="12" customWidth="true" width="13.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -752,16 +759,16 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>4</v>
       </c>
       <c r="E2" s="1"/>
@@ -772,42 +779,45 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
+      <c r="D4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>80</v>
@@ -815,22 +825,31 @@
       <c r="G4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
+      <c r="D5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>14</v>
@@ -841,24 +860,24 @@
       <c r="J5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -873,24 +892,24 @@
       <c r="I6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -905,27 +924,30 @@
       <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -940,27 +962,30 @@
       <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="K8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -975,27 +1000,30 @@
       <c r="I9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="K9" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1004,48 +1032,66 @@
       <c r="G10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L10" t="s">
+      <c r="H10" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="L10" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>72</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s" s="0">
         <v>7</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>83</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>14</v>
@@ -1053,263 +1099,269 @@
       <c r="I12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L12" t="s">
+      <c r="J12" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="L12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="D13" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="M13" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>4</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="M14" t="s">
+      <c r="M14" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s" s="0">
         <v>47</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="M15" t="s">
+      <c r="M15" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s" s="0">
         <v>47</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s" s="0">
         <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s" s="0">
         <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s" s="0">
         <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s" s="0">
         <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" t="s" s="0">
         <v>57</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>58</v>
       </c>
       <c r="L20" s="2"/>
-      <c r="M20" t="s">
+      <c r="M20" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>67</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>4</v>
       </c>
       <c r="F21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" t="s">
+      <c r="M21" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>75</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>4</v>
       </c>
       <c r="F22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" t="s">
+      <c r="M22" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>76</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1321,24 +1373,24 @@
       <c r="E23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>78</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="D24" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="M24" t="s" s="0">
         <v>70</v>
       </c>
     </row>

--- a/testdata/Scenario1_2_3_TestData.xlsx
+++ b/testdata/Scenario1_2_3_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2408439\CTS_Java_Training\Practicals\IntelliJ_Selenium_Projects\Hackathon_Project\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4BD19C-27BB-4318-A6CC-180F0AFE7170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66227E41-EE1C-451D-8198-1B8900B4E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DE57E9C9-A6C1-4A7D-85B9-1309751074B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="84">
   <si>
     <t>TC_ID</t>
   </si>
@@ -278,16 +278,16 @@
     <t>Test Data8</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>FAIL</t>
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
 </sst>
 </file>
@@ -820,10 +820,10 @@
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M4" t="s" s="0">
         <v>70</v>
@@ -846,10 +846,10 @@
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>14</v>
@@ -881,10 +881,10 @@
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>14</v>
@@ -913,10 +913,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>14</v>
@@ -925,7 +925,7 @@
         <v>15</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="0">
         <v>18</v>
@@ -951,10 +951,10 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>14</v>
@@ -963,7 +963,7 @@
         <v>15</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="0">
         <v>18</v>
@@ -989,10 +989,10 @@
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>14</v>
@@ -1001,7 +1001,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="0">
         <v>18</v>
@@ -1027,22 +1027,22 @@
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H10" t="s" s="0">
-        <v>83</v>
-      </c>
       <c r="I10" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L10" t="s" s="0">
         <v>22</v>
@@ -1088,10 +1088,10 @@
         <v>7</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>14</v>
@@ -1100,10 +1100,10 @@
         <v>15</v>
       </c>
       <c r="J12" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L12" t="s" s="0">
         <v>26</v>

--- a/testdata/Scenario1_2_3_TestData.xlsx
+++ b/testdata/Scenario1_2_3_TestData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="84">
   <si>
     <t>TC_ID</t>
   </si>
